--- a/templates/QA-Automation/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/QA-Automation/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8D40F203-41B0-4060-9486-FA884CADB2A0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{83C86D77-AE2C-4A01-BDB8-B9789EDF9772}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="7" tabRatio="761" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
   <si>
     <t>API Mode</t>
   </si>
@@ -221,58 +221,85 @@
     <t>Pro-Stock Product Lot Track (Lot track)</t>
   </si>
   <si>
-    <t>RMA-KS09-001</t>
-  </si>
-  <si>
-    <t>RMA-KS09-002</t>
-  </si>
-  <si>
-    <t>RMA-KS09-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xK12AAE</t>
-  </si>
-  <si>
-    <t>RMA-KS09-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xK13AAE</t>
-  </si>
-  <si>
-    <t>RMA-KS09-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xK14AAE</t>
-  </si>
-  <si>
-    <t>RMA-KS09-1-3</t>
-  </si>
-  <si>
-    <t>RMA-QT1Q-001</t>
-  </si>
-  <si>
-    <t>RMA-QT1Q-002</t>
-  </si>
-  <si>
-    <t>RMA-QT1Q-003</t>
-  </si>
-  <si>
-    <t>a7s5f000000xK17AAE</t>
-  </si>
-  <si>
-    <t>RMA-QT1Q-1-1</t>
-  </si>
-  <si>
-    <t>a7s5f000000xK18AAE</t>
-  </si>
-  <si>
-    <t>RMA-QT1Q-1-2</t>
-  </si>
-  <si>
-    <t>a7s5f000000xK19AAE</t>
-  </si>
-  <si>
-    <t>RMA-QT1Q-1-3</t>
+    <t>RMA-5TXN-001</t>
+  </si>
+  <si>
+    <t>RMA-5TXN-002</t>
+  </si>
+  <si>
+    <t>RMA-5TXN-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3cAAE</t>
+  </si>
+  <si>
+    <t>RMA-5TXN-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3dAAE</t>
+  </si>
+  <si>
+    <t>RMA-5TXN-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3eAAE</t>
+  </si>
+  <si>
+    <t>RMA-5TXN-1-3</t>
+  </si>
+  <si>
+    <t>RMA-6SQA-001</t>
+  </si>
+  <si>
+    <t>RMA-6SQA-002</t>
+  </si>
+  <si>
+    <t>RMA-6SQA-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3hAAE</t>
+  </si>
+  <si>
+    <t>RMA-6SQA-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3iAAE</t>
+  </si>
+  <si>
+    <t>RMA-6SQA-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK3jAAE</t>
+  </si>
+  <si>
+    <t>RMA-6SQA-1-3</t>
+  </si>
+  <si>
+    <t>RMA-NNPL-001</t>
+  </si>
+  <si>
+    <t>RMA-NNPL-002</t>
+  </si>
+  <si>
+    <t>RMA-NNPL-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK59AAE</t>
+  </si>
+  <si>
+    <t>RMA-NNPL-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK5AAAU</t>
+  </si>
+  <si>
+    <t>RMA-NNPL-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK5BAAU</t>
+  </si>
+  <si>
+    <t>RMA-NNPL-1-3</t>
   </si>
 </sst>
 </file>
@@ -282,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +329,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -384,7 +483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -410,11 +509,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -428,8 +545,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="10" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="14" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1146,7 +1275,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1217,11 +1346,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.78125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.53515625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.48828125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.984375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1271,10 +1400,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1283,7 +1412,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1300,10 +1429,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1312,7 +1441,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1329,10 +1458,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1341,7 +1470,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/templates/QA-Automation/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/QA-Automation/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>API Mode</t>
   </si>
@@ -300,6 +300,33 @@
   </si>
   <si>
     <t>RMA-NNPL-1-3</t>
+  </si>
+  <si>
+    <t>RMA-AQZZ-001</t>
+  </si>
+  <si>
+    <t>RMA-AQZZ-002</t>
+  </si>
+  <si>
+    <t>RMA-AQZZ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6aAAE</t>
+  </si>
+  <si>
+    <t>RMA-AQZZ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6bAAE</t>
+  </si>
+  <si>
+    <t>RMA-AQZZ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xK6cAAE</t>
+  </si>
+  <si>
+    <t>RMA-AQZZ-1-3</t>
   </si>
 </sst>
 </file>
@@ -309,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +356,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -483,7 +582,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -527,11 +626,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -557,8 +674,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="12" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1346,11 +1475,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.53515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.44921875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.52734375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1400,10 +1529,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1412,7 +1541,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1429,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1441,7 +1570,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1458,10 +1587,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1470,7 +1599,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/templates/QA-Automation/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
+++ b/templates/QA-Automation/RMA Complete Flow(Repair)-SO To RMA Receipt TO Replacement SO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
   <si>
     <t>API Mode</t>
   </si>
@@ -327,6 +327,33 @@
   </si>
   <si>
     <t>RMA-AQZZ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-Q7ZG-001</t>
+  </si>
+  <si>
+    <t>RMA-Q7ZG-002</t>
+  </si>
+  <si>
+    <t>RMA-Q7ZG-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBlAAM</t>
+  </si>
+  <si>
+    <t>RMA-Q7ZG-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBmAAM</t>
+  </si>
+  <si>
+    <t>RMA-Q7ZG-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKBnAAM</t>
+  </si>
+  <si>
+    <t>RMA-Q7ZG-1-3</t>
   </si>
 </sst>
 </file>
@@ -336,7 +363,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +383,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -582,7 +681,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -644,11 +743,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -686,8 +803,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="50" fillId="0" borderId="24" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1475,11 +1604,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.44921875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.6484375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.52734375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.01953125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1529,10 +1658,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1541,7 +1670,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1558,10 +1687,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1570,7 +1699,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1587,10 +1716,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1599,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
